--- a/Document/演習１テスト仕様書.xlsx
+++ b/Document/演習１テスト仕様書.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="68">
   <si>
     <t>作成者</t>
     <rPh sb="0" eb="3">
@@ -191,22 +191,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>野球チームの一覧が正しく表示されている</t>
-    <rPh sb="0" eb="2">
-      <t>ヤキュウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>タダ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>詳細が表示されるか</t>
     <rPh sb="0" eb="2">
       <t>ショウサイ</t>
@@ -227,22 +211,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>読売ジャイアンツの詳細画面が表示されている</t>
-    <rPh sb="0" eb="2">
-      <t>ヨミウリ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>「東京ヤクルトスワローズ」のリンクを押下する</t>
     <rPh sb="1" eb="3">
       <t>トウキョウ</t>
@@ -253,65 +221,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>東京ヤクルトスワローズの詳細画面が表示されている</t>
-    <rPh sb="0" eb="2">
-      <t>トウキョウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・事前準備SQLが実施されていること
-・野球チーム一覧画面を表示</t>
-    <rPh sb="1" eb="5">
-      <t>ジゼンジュンビ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ジッシ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ヤキュウ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・事前準備SQLが実施されていること
-・野球チーム詳細画面を表示</t>
-    <rPh sb="1" eb="5">
-      <t>ジゼンジュンビ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ジッシ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ヤキュウ</t>
-    </rPh>
-    <rPh sb="25" eb="29">
-      <t>ショウサイガメン</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>戻るボタンを押下する</t>
     <rPh sb="0" eb="1">
       <t>モド</t>
@@ -434,13 +343,121 @@
   </si>
   <si>
     <t>東京ヤクルトスワローズ（2006年〜）');</t>
+  </si>
+  <si>
+    <t>大熊隆寛</t>
+    <rPh sb="0" eb="2">
+      <t>オオクマ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>タカシ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヒロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・事前準備SQLが実施されていること
+・野球チーム詳細画面を表示されていること</t>
+    <rPh sb="1" eb="5">
+      <t>ジゼンジュンビ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヤキュウ</t>
+    </rPh>
+    <rPh sb="25" eb="29">
+      <t>ショウサイガメン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・事前準備SQLが実施されていること
+・野球チーム一覧画面を表示されていること</t>
+    <rPh sb="1" eb="5">
+      <t>ジゼンジュンビ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヤキュウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>野球チームの一覧が正しく表示されていること</t>
+    <rPh sb="0" eb="2">
+      <t>ヤキュウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>読売ジャイアンツの詳細画面が表示されていること</t>
+    <rPh sb="0" eb="2">
+      <t>ヨミウリ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>東京ヤクルトスワローズの詳細画面が表示されていること</t>
+    <rPh sb="0" eb="2">
+      <t>トウキョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -502,6 +519,22 @@
       <color rgb="FF1D1C1D"/>
       <name val="Inherit"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -576,7 +609,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -609,6 +642,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -905,8 +950,8 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+      <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.375" defaultRowHeight="13.5"/>
@@ -917,22 +962,22 @@
     <col min="4" max="4" width="30.875" style="4" customWidth="1"/>
     <col min="5" max="5" width="38.25" style="4" customWidth="1"/>
     <col min="6" max="6" width="46.625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="16.875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="13.75" style="4" customWidth="1"/>
-    <col min="9" max="9" width="17.125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="16.875" style="8" customWidth="1"/>
+    <col min="8" max="8" width="13.75" style="8" customWidth="1"/>
+    <col min="9" max="9" width="17.125" style="8" customWidth="1"/>
     <col min="10" max="16384" width="25.375" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="12"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="16"/>
       <c r="H1" s="3" t="s">
         <v>0</v>
       </c>
@@ -941,13 +986,13 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="14"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="18"/>
       <c r="H2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1002,11 +1047,17 @@
         <v>18</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+        <v>65</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="14">
+        <v>44342</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="5" spans="1:10" s="9" customFormat="1" ht="58.5" customHeight="1">
       <c r="A5" s="2" t="s">
@@ -1019,17 +1070,23 @@
         <v>16</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+        <v>65</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" s="14">
+        <v>44343</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="6" spans="1:10" s="9" customFormat="1" ht="60.75" customHeight="1">
       <c r="A6" s="2" t="s">
@@ -1039,20 +1096,26 @@
         <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="F6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" s="14">
+        <v>44344</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="7" spans="1:10" s="9" customFormat="1" ht="60.75" customHeight="1">
       <c r="A7" s="2" t="s">
@@ -1062,20 +1125,26 @@
         <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+        <v>67</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7" s="14">
+        <v>44345</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="8" spans="1:10" s="9" customFormat="1" ht="66.75" customHeight="1">
       <c r="A8" s="2"/>
@@ -1084,9 +1153,9 @@
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1109,312 +1178,312 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="63" spans="1:1">
